--- a/biology/Botanique/Landolphia_flavidiflora/Landolphia_flavidiflora.xlsx
+++ b/biology/Botanique/Landolphia_flavidiflora/Landolphia_flavidiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Landolphia flavidiflora  est une espèce de plantes à fleurs de la famille des Apocynaceae et du genre Landolphia, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Landolphia flavidiflora  est une grande plante grimpante, source de caoutchouc. Elle peut monter jusqu'à 35 m dans les arbres. Ses branches peuvent être de couleur brun-rouge à gris-vert[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Landolphia flavidiflora  est une grande plante grimpante, source de caoutchouc. Elle peut monter jusqu'à 35 m dans les arbres. Ses branches peuvent être de couleur brun-rouge à gris-vert.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est considérée comme vulnérable car on ne la connaît que dans 7 endroits, son aire d’occupation est de 28 km2. Il y a un déclin continu de l’extension et de la qualité d’habitat de cette plante due à un nombre important de menaces[3] : l’extension urbaine (Limbé, Yaoundé, Kumba), la pratique de la culture sur brûlis, la conversion de la forêt pour l’exploitation du bois et l’agriculture.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est considérée comme vulnérable car on ne la connaît que dans 7 endroits, son aire d’occupation est de 28 km2. Il y a un déclin continu de l’extension et de la qualité d’habitat de cette plante due à un nombre important de menaces : l’extension urbaine (Limbé, Yaoundé, Kumba), la pratique de la culture sur brûlis, la conversion de la forêt pour l’exploitation du bois et l’agriculture.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Propriétés et utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Landolphia flavidiflora  est parfois récoltée pour son latex.
 </t>
